--- a/tweets.xlsx
+++ b/tweets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,258 +436,4216 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>screen_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Views</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Likes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Retweets</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Replies</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wed Apr 30 22:07:58 +0000 2025</t>
+          <t>1907197172736807146</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://t.co/D86pED9PhF</t>
-        </is>
+          <t>BAYRAM İNAN.CHP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BayramINANCHP63</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:23:34 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://t.co/TbMdSWR7Sc</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wed Apr 30 22:48:55 +0000 2025</t>
+          <t>1907200819134402714</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://t.co/BkdmHQmJZR</t>
-        </is>
+          <t>MiRa ☕🚬</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Son_birsigara</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:38:04 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bir bayram daha geldi geçti hayatımızdan.
+Sağlık ve mutlu nice bayramlar sevdiklerimizle beraber görürüz inşallah.🙏 https://t.co/SYE72NyaDh</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:56:35 +0000 2025</t>
+          <t>1907217185862271349</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sadece işçinin bayram yapmadığı sözde işçi bayramınız kutlu olsun.</t>
-        </is>
+          <t>Bayram Ertürk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bayramerturk_02</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:43:06 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Net söylüyorum; Erbakan kazanacak.! https://t.co/UfrrAzzKTR</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:54:55 +0000 2025</t>
+          <t>1907203469351534930</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 Mayıs emek demektir, alın teri demektir. ezilen ve sömürülen tüm emekçilerin onurlu bayram günüdür.
-Tekrardan;
-Yaşasın 1 Mayıs!
-Biji Yek Gulan! https://t.co/4KptinWcGk</t>
-        </is>
+          <t>M'eyo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>_meyoo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:48:35 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Newroz+bayram+düğün+ekstra mutlu haber, müthiş 2 haftalık tatil oldu bee</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wed Apr 30 23:34:16 +0000 2025</t>
+          <t>1907209253548708154</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Çocuk işçilerin olmadığı,
-Emeğin değerinin bilindiği,
-Emeğe ve insana yatırımın yapıldığı,
-İhmalden çalışanların ölmediği, 
-Bayram havasında geçecek 
-1 Mayıslar  dileğiyle.. https://t.co/98RJCJVDZw</t>
-        </is>
+          <t>hüsna</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>husnaerbill</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:11:34 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bayram 3.günü 
+Süleymaniye ve Şehzadebaşı Camii https://t.co/4AYFKGhPLd</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:13:09 +0000 2025</t>
+          <t>1907208636025229437</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Allah razı olsun… https://t.co/XcNjhVfQ43</t>
-        </is>
+          <t>n e s l i ✨</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nanelimonata_</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:09:07 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Birdaha ki bayram her açıdan çok farklı ve harika olacak.. Hissediyorum.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wed Apr 30 20:43:16 +0000 2025</t>
+          <t>1907210952270848176</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tüm paylaşımlarımı değerli görüp yer işareti atan gizli arkadaş senide tüm güzellikler bulsun ne diyeyim moralim çok bozuk bu aralar inşaallah bayram tatili 9 gün olur ailemi memleketimi samimiyeti özledim bu şehirde 2 yılda yaşlandım sonum ......</t>
-        </is>
+          <t>Emir Buğra Bayram</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EmirBuraBayram1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:18:19 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Oğuz uyan Oğuz https://t.co/nCELY4KQ4c</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:52:39 +0000 2025</t>
+          <t>1907204473421754691</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>YARIN BAYRAM erken kalkin yoldaslar yatistayiz su sekil https://t.co/ygj4WmhDoK</t>
-        </is>
+          <t>Erhan Öztunç</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>erhanoztunc</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:52:35 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1-4-2025 Şibirgan Balalara Bayram Harçlığı-2 https://t.co/axmV8PzFUr</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:12:23 +0000 2025</t>
+          <t>1907204431046709674</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#1MAYIS https://t.co/QGQva3ydYH</t>
-        </is>
+          <t>Emre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>agcalardanemre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:52:25 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Kurt bayram tatilinden hiçbir şey anlamadı</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wed Apr 30 22:31:18 +0000 2025</t>
+          <t>1907199922941595892</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adliyeyi kahvehaneye çevirdiler,
-işte aAtatürk’ün kurduğu bu DEVLETÎ dine teslim ederseniz sonucu bu olur.
-Tüm muhalefet 1 mayıs'ı Taksim'de kutlamak için önderlik etmek zorunda,
-1 mayıs sadece bir bayram değil bir anmadır. bunun yeri de Türkiye'de Taksim meydanıdır.
-#1Mayıs https://t.co/nevgfPBFZ1</t>
-        </is>
+          <t>Vandal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sirvandal_</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:34:30 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bayramların eski tadı tuzu kalmadığına göre, iki bayramı birleştirip yazın bir haftalık ortak bir bayram ilan etsek daha iyi olur.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:15:45 +0000 2025</t>
+          <t>1907204001491554623</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>😍💙 #İyiGeceler https://t.co/6vEC3wUkW9</t>
-        </is>
+          <t>Derviş Çelik</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dervishane34</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:50:42 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Buyrun benim boykot listem ve hepsi bayram sabahı bile masum insanları katleden katillere açıktan destek veriyor, haydi bir tanesine boykot çağrısı yapında görelim...
+#BoykotDeğilMilliZarar https://t.co/acFBlS6DcK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wed Apr 30 22:04:00 +0000 2025</t>
+          <t>1907217507842150667</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>“Bayram dedikleri, alın terinin üzerine serilen gölgedir. Gerçek bayram, hakkın teslim edildiği gündür.”
-#1Mayıs #EmekVeAdalet #İşçiBayramı #YaşasınEmek https://t.co/K30QvavNfL</t>
-        </is>
+          <t>Kâmîl Hoca İle Yobazlık özel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kamil_Hocca</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:44:22 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Oğlum Ebubekir Sıddık’ın bayram harçlıklarını çaldım yarın cips mips alır piç</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>283</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:39:09 +0000 2025</t>
+          <t>1907207138830680117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bu ülke HIRSIZLAR, AHLAKSIZLAR, SAHTEKALRLAR ve MAFYALAR tarafindan soyuluyor!</t>
-        </is>
+          <t>Beti ✨</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>betyboly</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:03:10 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bayram da gittiğine göre vizelere hazır mıyız?</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wed Apr 30 23:59:13 +0000 2025</t>
+          <t>1907211377430737257</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#1mayıs #bayram #türkiye #çankırı https://t.co/dlU5DbU57O</t>
-        </is>
+          <t>Nese Bayram</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NeseBayram5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:20:01 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Trabzonspor taraftarından tarihi rekor!
+UEFA Gençlik Ligi çeyrek finalinde Trabzonspor ile Inter arasında oynanan maçı tribünden 40 bin 368 kişiyle taraftar rekoru kırıldı.  #haber  #gündem  #trabzonspor  #maç  #tribün  #taraftar   #Boykot #만우절 #riyadh #TAKEITOFF_JASPER https://t.co/FS6OYLDRTk</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wed Apr 30 20:44:57 +0000 2025</t>
+          <t>1907195151224562137</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://t.co/tHhWdj7emy</t>
-        </is>
+          <t>Hilallo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Hilaallo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:15:32 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bayram bittiğine göre artık dağılabiliriz.. https://t.co/IXmmkaTmJ1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>21</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:30:20 +0000 2025</t>
+          <t>1907199654296473887</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yaşasın 1 Mayıs! ✊ https://t.co/Lh64gDMfVc</t>
-        </is>
+          <t>Terazi79</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cgdm7979</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:33:26 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Son misafirlerimide gönderdim Bayram bitti ✅ yarın gün boyu dinlenme zamanı ✅</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:34:50 +0000 2025</t>
+          <t>1907204113080750260</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Türk ve müslüman ülkelerin yönetcileri hiç bir zaman kendi vatandaślarini ve ülke çikarlarini düśünmediler! Hep bop‘a ve sionistlere kölelelik yaptilar ve yapmaya devam ediyorlar!</t>
-        </is>
+          <t>Bayram Kilicaslan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BayramKili93677</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:51:09 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bugün #Boykot paylaşımı yapan, #BoykotListesi uyan herkes VATAN HAİNİ TERÖRİSTTİR. 
+#BoykotDeğilMilliZarar peşinde koşanlar #hükümet düşmanı değil #Vatan düşmanıdır.
+Bugün için #BOYKOTADEVAMTÜRKİYEM diyen herkes #TUTUKLANMALI...!
+Ekonomik #Darbe girişimi SUÇTUR..!!!</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wed Apr 30 21:20:45 +0000 2025</t>
+          <t>1907207752033726759</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1 Mayıs: Dünya Emekçilerinin Ortak Sesi
-Tüm dünya emekçileri, insanca bir yaşam için 1 Mayıs'ta meydanlarda buluşuyor. Bu gün sadece bir bayram değil; aynı zamanda işçi sınıfının yüzyıllardır süren adalet ve eşitlik mücadelesidir. 
-Araştırma: Gizem Sakyen
-Tasarım: Leo Kampe https://t.co/kCGNZr8hbk</t>
-        </is>
+          <t>Özcan Yavuz</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FB35OzcanYavuz</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:05:36 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Biz emeklilerinki
+Zaten
+Mecburi
+#Boykot
+4 bin lira Bayram ikramiyesini bile taksit taksit veriyorlar
+Daha 1.000lirayı veremediler...
+Emeklide 
+Paramı var ki harcasın..!
+#OrucaDevam https://t.co/qvYsxz10nq</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>28</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wed Apr 30 23:27:42 +0000 2025</t>
+          <t>1907219053598396516</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1 Mayıs İşçi ve Emekçilerin Bayramı ve benim doğum günüm.. Bayram insanlık dünyası , doğumum da benim için önemli. 
-Sömürenlerin egemenliğinde ki sistemde, sınıf bilincini yitirmemiş olanların Bayramı kutlu olsun https://t.co/g8PjqyzwKw</t>
-        </is>
+          <t>Mete Subutay</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Metinonder1967</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:50:31 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mekke'de Bayram yemeği https://t.co/3DJPhv0kQx</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1907192914070929895</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Özay Bayram</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ozay_bayram</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:06:39 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#BoykotDeğilMilliZarar https://t.co/A6CKsiTO10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1907204282220150956</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Erhan Öztunç</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>erhanoztunc</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:51:49 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1-4-2025 Şibirgan Balalara Bayram Harçlığı-1 https://t.co/Cds58rcGyP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1907193042634768599</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nur</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>eskiamayeni1i</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:07:09 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Bayram kapanışı 🍭 https://t.co/TlNrUi2kRi</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1907195235249405970</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>🕋🇹🇷͜͜͡͡✯Dilara🇹🇷͜͜͡͡✯☝️</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bozkurt__571</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:15:52 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Can Bula Canını Bayram O 
+Bayram Ola 
+Yüreğine sağlık hocam @HNecipoglu25 https://t.co/CDnLZXcBCO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>34</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1907189562830672358</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bayram Ali Uzer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BayramAliUzeer</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 21:53:20 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ey Türklüğün otağı! 
+Ne vakte dek, bu acıklı sefalet, 
+Bu viranlık, bu inilti, bu kaygu? 
+Ne vakte dek, bu uğursuz cehalet, 
+Bu taassup, bu görenek, bu UYKU?</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1907200401130082657</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cuneytto34</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cuneytto34</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:36:24 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bayram sonrasi iş varve ve zaman kısa  diye biyerede gidemedim iyikide gitmemişim kesin yolda 2-3 tane radar cezası yerdim ben 🤣🤣</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1907200848012173679</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pelin Kıvrak</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>pelinkivrak</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:38:10 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>tüm bayram uyuduğum için şu an uyuyamıyorum muhteşem</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1907209334817271979</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Buyrn ben Elif</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>yikiklardanelif</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:11:54 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>İki kişilik ilk bayram🌸🩷🎀 https://t.co/33uRJjkVxa</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1907205441421029491</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>brooke reid ᱬ✪ | thunderbolts* era</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>liqhtwxxd</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:56:26 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>bayram süresince akrabaların rahatsız edicilik, meymenetsizlik, suratsızlık, hadsizlik seviyesi https://t.co/lU3VvkojYP</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1907195762368205272</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>gaم‎ze🍉</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gamzzee_e</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:17:58 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>bayramı çifte bayram yaşayanların şansı diye bir şey varmış</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>32</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1907202341868355914</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mihriban</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ball_mihriban</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:44:07 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Farkeetimde kimse bana bayram mesajı atmadı. Ben yoğunluktan unutunca herkeste beni unuttu sanırım</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>28</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1907207493953974290</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Merve</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>merveadm35</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:04:35 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Öğretmenler için tatil şimdi başlıyor ,bayram boyunca çoluk çocuk + veli paketine maruz kaldık.Kafam gürültü götürmüyor 😏</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>58</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1907206914988974501</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pelin☀️</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>pelinnkra</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:02:17 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bu bayram şekerin olamadım diğer bayram qurbana çawen mîn be</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1907193897085772221</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Akın</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>kirpikafa9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:10:33 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Al şunu boykot twiti at 5 lira da bayram bonusu https://t.co/hW9REKC7QI</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1907204056046506288</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pilavcı Cengiz</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>cengizpilav</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:50:55 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Tarih mi etmiş djdjdjd en yakın migrosa gidin bakın bayram çikolataları hangi marka</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1907208694850289967</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Abdullah Taki Pamuk</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pamuk_Taki_26</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:09:21 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Aslan abilerim başkanlarımla birlikte bayram hatırası her şey çok güzel olacak https://t.co/VclyrUI4OB</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1907218370774065364</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Veryansıntv.com</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>veryansintvcom</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:47:48 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>İsrail bayram dinlemedi: 3’üncü günde 23 Filistinli öldürüldü 
+https://t.co/GZT1cC4Oc4 https://t.co/lkT1ZlMXf9</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>13</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1907200494658818204</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GulaSor</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>_gauloises</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:36:46 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bizde hiç bayram yoktur</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1907189441178788106</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>🇹🇷 🅗🅐🅚🅐🅝🇵🇸</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Bayram_Kh</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 21:52:51 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ARTIK YETER!
+ÜLKE İÇİN BİRŞEYLER YAPIN!
+BOYKOT ÇAĞRISI YAPAN 
+HER KİMSE 
+ONLARI BOYKOT EDİN ‼️ 
+#BoykotDeğilMilliZarar migros hükümete Soruşturma Gökhan Ünver Coca Cola Halkı kin Tunahan Yunanistan
+#hasancankaya Teşkilat https://t.co/tJEMTjPrXR</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1907195396327387161</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bahar Filiz KÖSE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>baharks</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:16:31 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Arkadaşlar bayram tatilinde
+İşkembeden atıp tutarken 
+Ben https://t.co/KvKI5rGDZP</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1907211689998614696</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>asena</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>peptitbagiyim</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:21:15 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Bayram dönüşü başlasam konular yetişir mi diye düşünmekten gün boyu bizim surat https://t.co/y430fv93Rh</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1907192618062118925</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BİLAL GÜL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1995_Staj</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:05:28 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NERDE KALMIŞTIK 
+Bayram bitti 
+Haydi herkes tweeter a 
+Sonunda farklı bir Tag gelmiş nihayet 
+Herkese Var Da Bize Yok Mu 
+#StajÇıraklıkSigortasıTalepDeğilHaktır</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>61</v>
+      </c>
+      <c r="H42" t="n">
+        <v>90</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1907207650095317393</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>By_nkara 🇹🇷</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bynkara1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:05:12 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Bayram da bitti , yarın dopdolu bir gündemle yeni bir tarih yazılıyor ! https://t.co/ldjZztmC1z</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1907204633434427784</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Grok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>grok</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:53:13 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>@ferdikorkmazzz @M10 @RTErdogan @ferdikorkmazzz Mesut Özil'in Erdoğan'a Bayram tebriği, siyasi yakınlık nedeniyle "yalakalık" olarak görülüyor. "Yalakalık", çıkar için aşırı övgü demek; Özil'in AKP'ye katılması ve geçmişi bu algıyı güçlendiriyor. Sorun alaycı bir eleştiri, kamu figürlerinin politik duruşuna https://t.co/9oLS7wHc2J</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1907196073925656671</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ada Bayram Ümit Özdağı Serbest Bırakın</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bayram_adaaa</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:19:12 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>zaten eksiğiz daha ne kadar azalabiliriz</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1907209845867966567</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>melo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>melonii0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:13:56 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Bayram bahanesiyle yazsana gerizekalı</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1907212823773556837</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Mesut İBİÇ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MesutIbic</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:25:46 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Bu bayram annem kalkıp geldi başkası gelmesede olur</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>13</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1907220134151766124</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Şivekâr 🥀</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>sebebihusntalil</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:54:49 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>✨️ Bayram dump ✨️ https://t.co/bhQ9BrBk3Z</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1907205179276992655</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ömer Altaş</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>omeraltas57</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:55:23 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BAYRAM GELMİŞ GEÇMİŞ NEYİME !!!
+EMEKLİ ORUCA DEVAM !!!
+#OrucaDevam</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>113</v>
+      </c>
+      <c r="H49" t="n">
+        <v>66</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1907207359002198210</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Odatv</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>odatv</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:04:03 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Bayram bitti çilesi başladı</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>17073</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>12</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1907220944751378503</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mehmet Bozkurt</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>detaymehmet</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:58:02 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Geçmiş yıllarda ramazan ve bayramın oldukça hareketli mekanlarından olan Gaziantep Kalesi çevresinde son durum. 
+Neredeyse tüm kebapçı ve işyerleri kapalı. 
+#Gaziantep #Turkiye #bayram @GaziantepBeld @gantepvaliligi #SONDAKİKA #SonDakika #gundem https://t.co/3X9ocRiPHC</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1907204457596698983</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>@ Bulutsuz</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BulutaBak</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:52:31 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bayram tatilinde savcılık çalışıyor ise... 
+Neden Mahir Polat 'ı bırakmadınız ?
+#MahirPolatSerbestBırakılsın</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1907205136436383893</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>yıldız Ayşe</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>mugla4820</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:55:13 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Ramazan bitti bayram bitti hala bayram parası yok.
+Bize para mı verdiniz de harcayalım.
+#orucadevam</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>178</v>
+      </c>
+      <c r="H53" t="n">
+        <v>26</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1907201677532295671</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ah Chen</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>tebrikediyorumg</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:41:28 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Vadedip vermediğiniz bin tele emekli bayram ikramiyesini verin de alsınlar. Paraları yok malum</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1907197679974637674</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ata</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Gliftsys</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:25:35 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Yatıyorum ben, Allah aşkına toplu helaka neden olacak şeyler yapmayın çok sıkıldım.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1907206644414517487</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Sema Bayram</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>semaabayrm</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:01:12 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ilerdeki eşime yaşatacağımız o cennet 
+(not: eş-belirsiz, takım-belirsiz, çocuk-belirsiz)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1907206102472888606</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>the capulcu era</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>deftoneskirazi</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:59:03 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>boykot ne güzel bir seymis genc olmayi iliklerime kadar hissediyorum su an bayram bitse de eylemlere de devam etsek</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>10</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1907206686592655777</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>İbo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>hasdmsjsjshd</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:01:22 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Yenidoğan yeğenime aldığım bayram hediyesi https://t.co/T6Ls9OzUIX</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>15</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1907218021669605828</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AyşeNur👀</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>aysecnbzz</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:46:25 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>İyi ki bayram 4 gün değilmiş,iyi ki.. eğer öyle olmuş olsaydı ufak çaplı ağlama krizleri ile 4. günü sonlandırırdık diye düşünüyorum. Beni benden daha çok düşünen ve önemseyen sevgili eş dost,kurban olayım artık beni düşünüp önemsemeyin. Lütfen. Gerçekten takatim kalmadı..</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1907214456976802123</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>rene_gencer</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:32:15 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Kingom bayram harçlığını almış yarın 2 tane çakıcam oçsaraya diyor⏳
+ https://t.co/wosJmDac44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1907210645138780359</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Umut Sığırtmaç</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>umutsgrtmac</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:17:06 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Emekli bayram ikramiyesine 1000 tl zammı dahi vermemek için çırpınan adamlara göre çok iddialı başlıklar!
+Bu korku, sermayenin ve bir avuç insanın gücünün artık halka geçeceğinin anlaşılmasından.
+Bütün mümkünlerin kıyısındayız. Tepkini göster, boykot et.
+#2nisantüketimboykotu</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1907207001865597302</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>arsy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>careolmadigina</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:02:38 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Bayram değil seyran değil bu kız benim storyi niye likeladı</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1907214091200111035</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ela</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>hallederizzaten</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:30:48 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>bayram sekerin zaten olamadim bari bayramimi kutsaydin ama o da gecti</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1907200269022073244</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Metil Alkol Bağımlısı 🇵🇸🇱🇧</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>metilbagimlisi</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:35:52 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Fairuzun da dediği gibi : Bayram gitti artık uzak,seni ziyaret etmek istiyorum sevgilim ve bayramı bekliyorum...
+راحت عالعيد والعيد بعيد
+بدّي روح زورك يا حبيبي وناطر للعيد</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1907200505849291233</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bayram 🇹🇷</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>kizilelma_75</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:36:49 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Sn. @RHisarciklioglu devletimiz nelerle uğraşıyor fazlasına gerek yok.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1907211474595909978</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ico⭐️🇹🇷</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>iclalben3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:20:24 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Gündem çok değişmeye başladı. 
+Değişmeyin.
+Gündemle alakalı gördüğünüz her şeyi tekrar paylaşın.
+301 sıra arkadaşımız hala içeride iken bize bayram değil.
+#Boykot</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1907204517684199427</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bayram ÖZKAN</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>byrmzkn</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:52:45 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Keser döner sap döner tavuk döner horoz..</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1907206216083800530</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fevkalbeşer🇵🇰🇸🇴</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>geneticlockdown</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:59:30 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Bayram bittiği için eski rutine dönelim https://t.co/ZqxXbJpeNi</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>19</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1907216498931716228</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>hüm ama msk'ci olan🥀</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>agentwalkerr</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:40:22 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>bu bayram geldim o noktaya</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1907203038965645545</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Bayram ÖZKAN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>byrmzkn</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:46:53 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Türk milli takımı yerine Alman milli takımını tercih edenden alınacak milliyetçilik dersimiz kalmadı mesut kardeş 🤭</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1907193859131478076</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Aleyna</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AleynaRmakk</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:10:24 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Hadi bitti bayram defolun şehrinize yaaaa</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1907208976778903615</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Rengrengi🌼</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>rngnksn</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:10:28 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Millet bayram yapsın ben sabah uyanıp işe gideceğim.😌</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1907203574662128038</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Melis Işıldak</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>melisisildakk</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:49:00 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Bayram sonrası şirkette ilk günüm</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1907206342873407887</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TRT HABER</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>trthaber</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:00:00 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Anadolu Otoyolu'nda bayram dönüşü yoğunluğu.
+https://t.co/jjZVXUsJ1w https://t.co/gLGgtbW1I7</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>27592</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>67</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1907213447370080612</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>anastasia sokratesova</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>anastasiaskrtsv</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:28:14 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Bayram seyran demeden görev başındayız 🫡 https://t.co/IcztdnpzFD</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1907220345540534457</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Grok</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>grok</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:55:39 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>@bekem34958 @bekem34958 Seni şaşırttım galiba, kusura bakma! 😅 "Beni error yaptın" demekle beni playfully suçluyorsun, anladım. Ramazan bitti, Bayram başladı, Murat Övünç muhabbeti de cabası—konu biraz karışmış olabilir. Netleştirelim: Murat pijamayla mı yoksa bornozla mı daha havalı? Şaka https://t.co/07BtgL71TF</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1907193396843753652</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Nunişş</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>h_ucentrmagi</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:08:34 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Bu sene bayram ne yüreğime ne de kalbime gelmedi. İçimi rabbim soğut lütfen</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1907197283176726672</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ecesu</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>halolinaaa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:24:00 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Çoğu arkadasim şahsi oğlanıyla bayramı bayram etti biz bayramları süsler yüzün mesaji bile alamadik ya yaziklar olmus bize</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>20</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1907207161798627418</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Bayram</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TOPTAS0101</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:03:16 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://t.co/WeGqplbgsG</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1907188780479439335</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MERCİMEK🇳🇬</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>mercimekd12</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 21:50:13 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Arkadaşlarla bayram harçlıklarını ezmeye geldik https://t.co/kxHoVBD5Ua</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1907219625781141608</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>F.BEY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Fthbyyy</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:52:47 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Bağdat Murat Ülker Adil Üniversiteli Mehmet Şimşek
+Coca cola Togg Yılmaz Özdil Ramo 
+Mado Saraçhane Yerli Şişli Kahve Kent Bayram Bedava Gencecik</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1907189502075900330</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Bayram kurt</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Bayram352480</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 21:53:05 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>BAŞINI ÖNE EĞME 
+@Abdulla28622087</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1907200268048937408</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Timujiue</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>timecinex</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:35:52 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Nihayet bayram bitti aq kaç gündür elim kimyasal atık oldu kolonya dökülmekten.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1907193056207753246</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>askimm</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>zatenharikayim</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:07:13 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>bu bayramı da bayram şekeri mesajını alamadan kapatıyoruz</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1907191052542542034</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bayram Ergül🦅</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BayramErgl18</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 21:59:15 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>işte bu kadar!</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1907208959582191895</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Grok</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>grok</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:10:24 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>@naturebilgos İnsanlar Volkan Konak’ın paylaşımlarının altına Eren Bülbül’ü, Karadeniz bağlantıları ve bölgesel gurur nedeniyle yazıyor olabilir. Son Bayram’da Volkan’dan Eren’i anması beklenmiş, ancak kalp krizi sonrası sessizliği tartışma yaratmış. X’te kullanıcılar, Volkan’ın tutumunu https://t.co/809ZnP0Ri2</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1907197287014486220</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ZK</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>zkorkmaz0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:24:01 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>bizim rektörün bayramlarla sorunu var sanırım bayram sonralarına hep sınav koyması normal değil de</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1907201797447405657</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Koray</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>kumralkonusuyr</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:41:57 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bayram bitti sikik akraba tivitlerini salın artık</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1907195065954357645</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ahmet Bayram</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>abayram_</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:15:12 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>CHP'nin Türkiye partisi olmadığını biliyorduk. Tescillenmiş oldu. 
+CHP ve İsrail'in desteklediği boykot çağrısına karşı duruyoruz. https://t.co/qqCB0rhrYO</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1907208501744500763</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Bayram Uluad</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>bayram_uluad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:08:35 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Vatanı sermayeden ibaret sayanlar sermaye düşmanlığına vatan hainliği der elbette! Sizin vatanınız kasalarınız, kahveleriniz ve dükkanlarınızdan ibaret! Bunu zaten biliyorduk da itirafınız çok hoş oldu! Sermayedarlar bizi saçmalığa inandırmaya çalışarak vatan hainliğini gizliyor!</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>15</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1907203325264822749</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>🅱️</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>azulability</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:48:01 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>bu bayram aldıgım sorular benı hıc rahatsız etmedı verdıgım cevaplar onları rahatsız ettı..bakalım bı dahakı bayram nasıl performans gosterecegız</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>31</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1907210971833094508</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TÜLİN TEKİN</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>TLNTEKN1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:18:24 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Bayram İkramiyem 3 Nisan da yatacakmis....
+2 Nisan mecburen
+#Boykot 
+😉</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1907212391760146578</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>irem</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>irem_izmm</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:24:03 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3 günlük bayram boyunca o kadar çok yedim ki sanırım bugün hiçbir şey yiyemeyeceğim.. bir de çok yoruldum malum misafir, gelen giden, hizmet işleri…neyse bugün güzel bir yatış zamanı… gözlerini açana aşk olsun… Allah’tan 9 gün tatil 😌</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1907207394775490946</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>seda</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>seda_ylndk</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:04:11 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Aklıma bayram yorgunluğundan sonra vize haftası geliyorrr</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1907216041932996637</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ERZURUM Gazetesi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>erzurumgazetesi</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:38:33 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Vali'den Erzurumlu askere bayram sürprizi https://t.co/VHNhWCfYJ4</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1907209887253168479</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BirliktenKuvvetDogar</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>KuvvetDogar</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:14:06 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Adalar Belediye Başkanı, İmamoğlu'nun bayram mesajını Marmaray’da yolculara iletti
+#ekremimamoğlu 
+#darbeyeteslimolmayız 
+ https://t.co/CD9wpQypU7</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1907201667709255710</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>mehmet zeki özer</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>mehmetzer11</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:41:26 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>DİYŞAD’TA ÇİFTE BAYRAM - Diyarbakır - Diyarbakır ve Bölgeden Son Dakika Haberler https://t.co/onaIUlbCcD @@guneydoguguncel aracılığıyla</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1907205208125632820</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ecz BB</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>zamankoru</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:55:30 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Ya gündem dışı ama regl bayram derken benim diyet yalan oldu ya inşallah en azından almamışımdır.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1907215102022955125</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mebsiz Öğretmen</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vaaveyylaa</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 23:34:49 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Çok şükür bayram gezmelerimde dağ gibi biriken konularımin accığını toparladım</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1907199744159756409</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Veli</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>10VBacik</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:33:47 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>gececi emekçi coder arkadaşlara selam olsun
+kahveyi koydum
+bayram bitti bug bitmedi..
+bazen kötü hissedersiniz bu normal ekiplerde emeğiniz görülmez saatlerce fazla çalışırsınız. keşke o yöneticileriniz şov değil emeğe baksa biraz. ben hep buradayım sizlerle gurur duyuyorum.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1907195543874347236</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GAG Turkic</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GAGturkic</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Tue Apr 01 22:17:06 +0000 2025</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Bolu Göynük’te bayram namazına geç kalan veya gelmeyenler, köyde bulunan su oluğuna atıldı. https://t.co/0fkFNfulHz</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3501</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>14</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
